--- a/public/example.xlsx
+++ b/public/example.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eman Al-Habashi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23D1B08-D3CB-4A18-B9F0-848F592F5C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED01EE8-5695-47E9-9D22-9035EAAE91B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tbl_template_01_2022_M01_M04" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="tbl_template_01_2022_M01_M04">tbl_template_01_2022_M01_M04!#REF!</definedName>
+    <definedName name="tbl_template_01_2022_M01_M04">sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>رقم مهندس الدراسة</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>المنطقة التنظيمية</t>
+  </si>
+  <si>
+    <t>عدد الطوابق</t>
+  </si>
+  <si>
+    <t>مجموع الرخصة</t>
+  </si>
+  <si>
+    <t>المساحة الإجمالية</t>
   </si>
 </sst>
 </file>
@@ -464,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -492,10 +501,12 @@
     <col min="18" max="18" width="13.85546875" customWidth="1"/>
     <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30.75" customHeight="1">
+    <row r="1" spans="1:22" ht="30.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,6 +563,15 @@
       </c>
       <c r="S1" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -695,18 +715,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -728,18 +748,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5BB03D3-82BA-4B55-8D9B-CFEAB975834D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C442948-FA67-4BAD-A673-D0FFAC57FC04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5BB03D3-82BA-4B55-8D9B-CFEAB975834D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>